--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353682.9040240523</v>
+        <v>367409.2621614703</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660752</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
         <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660752</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
         <v>148616.7125948227</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>79636.80000449967</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434392</v>
+        <v>31286.06023434384</v>
       </c>
       <c r="C6" t="n">
-        <v>31286.06023434369</v>
+        <v>31286.06023434373</v>
       </c>
       <c r="D6" t="n">
-        <v>31286.06023434392</v>
+        <v>31286.06023434384</v>
       </c>
       <c r="E6" t="n">
-        <v>-67731.69951468533</v>
+        <v>-67731.69951468539</v>
       </c>
       <c r="F6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="G6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="H6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="I6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="J6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="K6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="L6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="M6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="N6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="O6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
       <c r="P6" t="n">
-        <v>65368.30048531467</v>
+        <v>65368.30048531466</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>367409.2621614703</v>
+        <v>283623.8603998449</v>
       </c>
     </row>
     <row r="7">
@@ -26319,43 +26319,43 @@
         <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="F2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="G2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="H2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="I2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="J2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="K2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="L2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="M2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="N2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="O2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="P2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434384</v>
+        <v>31241.92445566272</v>
       </c>
       <c r="C6" t="n">
-        <v>31286.06023434373</v>
+        <v>31241.9244556626</v>
       </c>
       <c r="D6" t="n">
-        <v>31286.06023434384</v>
+        <v>31241.9244556626</v>
       </c>
       <c r="E6" t="n">
-        <v>-67731.69951468539</v>
+        <v>-82541.71635379935</v>
       </c>
       <c r="F6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="G6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="H6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="I6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="J6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="K6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="L6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="M6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="N6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="O6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
       <c r="P6" t="n">
-        <v>65368.30048531466</v>
+        <v>50558.2836462007</v>
       </c>
     </row>
   </sheetData>
